--- a/data/challenges.xlsx
+++ b/data/challenges.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\github\around_ch\project-folder\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\github\around-ch-prototyp-railway\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C19982-4A71-4881-BAF5-6572A44EA048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC380F7-1854-43CD-91F9-B875E9E7F65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3310" windowWidth="19080" windowHeight="16660" xr2:uid="{6C5A2459-C472-46C9-B1BC-BCC00E567CF2}"/>
+    <workbookView xWindow="20840" yWindow="1700" windowWidth="16850" windowHeight="16660" xr2:uid="{6C5A2459-C472-46C9-B1BC-BCC00E567CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
-  <si>
-    <t>art_der_challenge</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>total_meter</t>
   </si>
@@ -54,6 +51,12 @@
   </si>
   <si>
     <t>Neuenburgerseeumrundung</t>
+  </si>
+  <si>
+    <t>Thunerseeumrundung</t>
+  </si>
+  <si>
+    <t>name_der_challenge</t>
   </si>
 </sst>
 </file>
@@ -75,7 +78,7 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF101010"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -122,11 +125,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -463,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575D18FD-C522-49EA-A191-D8B369547A7C}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,45 +484,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>190980</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>51650</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>98330</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4">
+        <v>51300</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
